--- a/Assets/Scripts/MG/Data/DialogData.xlsx
+++ b/Assets/Scripts/MG/Data/DialogData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\HaveToTrade\Assets\Scripts\MG\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade\Assets\Scripts\MG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02455073-43C1-4135-8C08-1850E32BD2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBE5AF6-A7D0-4D0A-A7A9-E3E05ECA8652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2850" windowWidth="15675" windowHeight="12450" activeTab="1" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEX" sheetId="1" r:id="rId1"/>
